--- a/CPPluvio.xlsx
+++ b/CPPluvio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Geologia applicata alla difesa del suolo e dell'ambiente\Elementi di Idrologia e Idraulica\II-MaterialeRelTecIdrologia2021-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F564FBD-6275-430B-BCFB-38C3466A9FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA2876-4A74-4F28-8E25-50CDA2343A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{074D4A0B-AD08-4652-AFC6-70C544DE9C59}"/>
   </bookViews>
@@ -126,7 +126,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,11 +145,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -224,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -246,8 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -385,7 +378,37 @@
             </c:spPr>
             <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -466,7 +489,7 @@
                   <c:v>150.77747175215382</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>175.42412691059764</c:v>
+                  <c:v>171.5455316927065</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>191.1009260055302</c:v>
@@ -524,7 +547,37 @@
             </c:spPr>
             <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -605,7 +658,7 @@
                   <c:v>173.15900931866042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>201.50134383168302</c:v>
+                  <c:v>196.27488798128365</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>218.70791988839781</c:v>
@@ -663,7 +716,37 @@
             </c:spPr>
             <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -744,7 +827,7 @@
                   <c:v>189.93082216614408</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>221.04254829469457</c:v>
+                  <c:v>214.80606057290362</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>239.29444914651287</c:v>
@@ -802,7 +885,37 @@
             </c:spPr>
             <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -883,7 +996,7 @@
                   <c:v>206.64143748582813</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>240.51245018509584</c:v>
+                  <c:v>233.26961602854976</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>259.82898644673895</c:v>
@@ -934,6 +1047,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200" baseline="-25000"/>
+                  <a:t>p </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>[ore]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38655216256608149"/>
+              <c:y val="0.90841924398625429"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -997,6 +1181,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="1200"/>
+                  <a:t>h [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5108593012275733E-2"/>
+              <c:y val="0.40840490299537308"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1689,7 +1936,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2017,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7040E0B5-CF9E-472E-B68E-3E42C3DBA5CF}">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
@@ -2162,11 +2409,11 @@
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15">
-        <v>3.5730170581979713E-2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>92.295633520751807</v>
+      <c r="B11" s="3">
+        <v>3.7677624844770267E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>92.713724717633013</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2326,7 +2573,7 @@
       </c>
       <c r="K18" s="4">
         <f>$C$11+1/$B$11*(-LN(-LN(1-1/A18)))</f>
-        <v>175.42412691059764</v>
+        <v>171.5455316927065</v>
       </c>
       <c r="L18" s="4">
         <f>_xlfn.LOGNORM.INV(1-1/A18,$D$12,$E$12)</f>
@@ -2379,7 +2626,7 @@
       </c>
       <c r="K19" s="4">
         <f t="shared" ref="K19:K21" si="9">$C$11+1/$B$11*(-LN(-LN(1-1/A19)))</f>
-        <v>201.50134383168302</v>
+        <v>196.27488798128365</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" ref="L19:L21" si="10">_xlfn.LOGNORM.INV(1-1/A19,$D$12,$E$12)</f>
@@ -2432,7 +2679,7 @@
       </c>
       <c r="K20" s="4">
         <f t="shared" si="9"/>
-        <v>221.04254829469457</v>
+        <v>214.80606057290362</v>
       </c>
       <c r="L20" s="4">
         <f t="shared" si="10"/>
@@ -2485,7 +2732,7 @@
       </c>
       <c r="K21" s="4">
         <f t="shared" si="9"/>
-        <v>240.51245018509584</v>
+        <v>233.26961602854976</v>
       </c>
       <c r="L21" s="4">
         <f t="shared" si="10"/>
@@ -2512,10 +2759,10 @@
         <v>20</v>
       </c>
       <c r="M28" s="1">
-        <v>32.634</v>
+        <v>32.634999999999998</v>
       </c>
       <c r="N28" s="3">
-        <v>0.3886</v>
+        <v>0.38769999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2523,10 +2770,10 @@
         <v>50</v>
       </c>
       <c r="M29" s="1">
-        <v>37.118000000000002</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="N29" s="3">
-        <v>0.38990000000000002</v>
+        <v>0.38879999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2534,10 +2781,10 @@
         <v>100</v>
       </c>
       <c r="M30" s="1">
-        <v>40.457000000000001</v>
+        <v>40.459000000000003</v>
       </c>
       <c r="N30" s="3">
-        <v>0.39079999999999998</v>
+        <v>0.38950000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2545,10 +2792,10 @@
         <v>200</v>
       </c>
       <c r="M31" s="1">
-        <v>43.776000000000003</v>
+        <v>43.777999999999999</v>
       </c>
       <c r="N31" s="3">
-        <v>0.39150000000000001</v>
+        <v>0.39019999999999999</v>
       </c>
     </row>
   </sheetData>
